--- a/TutorGroup_Deliverable_3_SprintBacklog.xlsx
+++ b/TutorGroup_Deliverable_3_SprintBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kleitionbendo/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBE4172-822E-2648-A305-530BA011E478}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D05FF08D-3A5C-EF4F-B6FE-61A8AFD18735}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="720" windowWidth="20840" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2400" yWindow="460" windowWidth="20840" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Number</t>
   </si>
@@ -70,6 +70,39 @@
   </si>
   <si>
     <t>F, T</t>
+  </si>
+  <si>
+    <t>* Tasks: Implement front-end, which includes a form showcasing a tutor's qualifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Implement back-end, data entered by a tutor user should be saved in a database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Entries saved in the database should be displayed in the tutor's profile</t>
+  </si>
+  <si>
+    <t>* Tasks: Implement front-end, which includes a form showcasing a student's basic information and interests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Implement back-end, data entered by the student user should be saved in a database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Entries saved in the database should be displayed in the student's profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Students need to be able to post listings inside the community tab</t>
+  </si>
+  <si>
+    <t>* Tasks: Implement a community tab inside the website.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Listings need to be saved In a database.</t>
+  </si>
+  <si>
+    <t>* Tasks:  Tutors need to be able to respon to listings inside the community tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Responses need to be saved in a database</t>
   </si>
 </sst>
 </file>
@@ -360,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -434,155 +467,244 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>13</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5">
-        <v>3</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>16</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="7">
         <v>0</v>
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    <row r="7" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>23</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E13" s="7">
         <v>0</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D14" s="5">
         <v>2</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E14" s="7">
         <v>0</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D18" s="5">
         <v>3</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E18" s="7">
         <v>0</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1551,6 +1673,15 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/TutorGroup_Deliverable_3_SprintBacklog.xlsx
+++ b/TutorGroup_Deliverable_3_SprintBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kleitionbendo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kleitionbendo/VS Code/Tutor-Software-Engineering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D05FF08D-3A5C-EF4F-B6FE-61A8AFD18735}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6360CFA-B2BC-5F40-914D-C18C1B388660}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2400" yWindow="460" windowWidth="20840" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20840" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Number</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t xml:space="preserve">                 Responses need to be saved in a database</t>
+  </si>
+  <si>
+    <t>Hunter 100%</t>
+  </si>
+  <si>
+    <t>Klei 100%, front-end done, working on back-end</t>
   </si>
 </sst>
 </file>
@@ -395,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -511,9 +517,11 @@
         <v>3</v>
       </c>
       <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
@@ -595,9 +603,11 @@
         <v>1</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
